--- a/DOC/要件定義/社内管理システム _EMS.xlsx
+++ b/DOC/要件定義/社内管理システム _EMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\softtech\workspace\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8935AF-CA5F-497A-B4B0-EE3D9F387E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20A130-C13F-41D1-8A89-C34D364915EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="360" windowWidth="25290" windowHeight="15240" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="一般経費" sheetId="15" r:id="rId8"/>
     <sheet name="勤怠リスト" sheetId="16" r:id="rId9"/>
     <sheet name="給料一覧(製造中)" sheetId="4" r:id="rId10"/>
-    <sheet name="給料作成（製造中）" sheetId="14" r:id="rId11"/>
-    <sheet name="稼働時間入力20210305製造完" sheetId="11" r:id="rId12"/>
-    <sheet name="交通費入力20210305製造完" sheetId="10" r:id="rId13"/>
-    <sheet name="稼働確認20210305製造完" sheetId="12" r:id="rId14"/>
-    <sheet name="給料明細20210227完" sheetId="5" r:id="rId15"/>
-    <sheet name="→のシート削除予定かな" sheetId="9" r:id="rId16"/>
-    <sheet name="社員リスト" sheetId="6" r:id="rId17"/>
-    <sheet name="月度処理" sheetId="3" r:id="rId18"/>
+    <sheet name="社員別給料一覧" sheetId="20" r:id="rId11"/>
+    <sheet name="給料作成（製造中）" sheetId="14" r:id="rId12"/>
+    <sheet name="稼働時間入力20210305製造完" sheetId="11" r:id="rId13"/>
+    <sheet name="交通費入力20210305製造完" sheetId="10" r:id="rId14"/>
+    <sheet name="稼働確認20210305製造完" sheetId="12" r:id="rId15"/>
+    <sheet name="給料明細20210227完" sheetId="5" r:id="rId16"/>
+    <sheet name="→のシート削除予定かな" sheetId="9" r:id="rId17"/>
+    <sheet name="社員リスト" sheetId="6" r:id="rId18"/>
+    <sheet name="月度処理" sheetId="3" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="273">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -2528,11 +2529,220 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>李</t>
+    <rPh sb="0" eb="1">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員別給料一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「前年度」を押すと前年度のデータを表示する。前年度給料情報が存在しない場合、空白を表示する。</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンネンド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ゼンネンド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「次年度」を押すと翌年度のデータを表示する。翌年度給料情報が存在しない場合、空白を表示する。</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ヨクネンド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「明細へ」を押すと指定年月の「給料明細画面」へ遷移する。明細情報存在しない年月明細行に該当ボタンを表示しない。</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示はシステム年度全月の給料情報を表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「給料明細画面」から遷移される場合、「給料明細画面」に指定される年度で表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給料情報が存在しない年度の場合、全明細行に空白を表示する。</t>
+    <rPh sb="16" eb="17">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員給料情報を一覧形式で表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2866,7 +3076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2985,6 +3195,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2997,14 +3213,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3039,26 +3270,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4578,6 +4818,476 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 磁気ディスク 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA4E414-B563-4D9D-9125-D5040D9660A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="7591425"/>
+          <a:ext cx="1152525" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>給料テーブル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857ADB39-B110-4F11-957B-802B1E29845E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="1752600"/>
+          <a:ext cx="904875" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12345</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E40807-204A-49AF-A916-FBF1C3E96389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="4410075"/>
+          <a:ext cx="600075" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 磁気ディスク 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411ABADB-E2EB-47CF-BD32-963F7AF94C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="7181849"/>
+          <a:ext cx="1209676" cy="1552576"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>①契約情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>②勤怠情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>③交通費情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>④福祉情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93B73B6-BECB-4B43-A440-4D2F28ABB666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="7762875"/>
+          <a:ext cx="942975" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631E9C59-DB3F-40D6-BA1F-095E131E6347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3981450" y="7943850"/>
+          <a:ext cx="942975" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3730930B-4E07-4A95-940F-8BDB7B623E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="4"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876426" y="7958137"/>
+          <a:ext cx="1162049" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -5807,7 +6517,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8565,7 +9275,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10570,7 +11280,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10643,7 +11353,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10905,7 +11615,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14836,23 +15546,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="フローチャート: 磁気ディスク 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA4E414-B563-4D9D-9125-D5040D9660A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB3F2FE-781C-4F04-9B8E-530C4B7C6702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14860,7 +15570,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4924425" y="7591425"/>
+          <a:off x="2695575" y="6629400"/>
           <a:ext cx="1152525" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -14904,23 +15614,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857ADB39-B110-4F11-957B-802B1E29845E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84796F28-0064-4924-BACD-8DE04E9516F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14928,75 +15638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123950" y="1752600"/>
-          <a:ext cx="904875" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>12345</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>円</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E40807-204A-49AF-A916-FBF1C3E96389}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495550" y="4410075"/>
-          <a:ext cx="600075" cy="295275"/>
+          <a:off x="571500" y="752476"/>
+          <a:ext cx="609600" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15025,96 +15668,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>確定</a:t>
+            <a:t>前年度月</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 磁気ディスク 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411ABADB-E2EB-47CF-BD32-963F7AF94C0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="7181849"/>
-          <a:ext cx="1209676" cy="1552576"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>①契約情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>②勤怠情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>③交通費情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>④福祉情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -15126,23 +15682,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93B73B6-BECB-4B43-A440-4D2F28ABB666}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BECAFE-FC11-4B70-9263-EBCBAB76AD89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15150,10 +15706,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="7762875"/>
-          <a:ext cx="942975" cy="400050"/>
+          <a:off x="9324976" y="733425"/>
+          <a:ext cx="628650" cy="295275"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -15180,8 +15736,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>本画面</a:t>
+            <a:t>次年度</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15189,114 +15750,138 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631E9C59-DB3F-40D6-BA1F-095E131E6347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF78FB7-D64A-46B9-B33A-7848A77346E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3981450" y="7943850"/>
-          <a:ext cx="942975" cy="19050"/>
+        <a:xfrm>
+          <a:off x="9429750" y="1514475"/>
+          <a:ext cx="609600" cy="285750"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>明細へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3730930B-4E07-4A95-940F-8BDB7B623E04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FDE880-CF39-4F9C-B89D-1EB133AA6F76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="4"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876426" y="7958137"/>
-          <a:ext cx="1162049" cy="4763"/>
+          <a:off x="9439275" y="1809750"/>
+          <a:ext cx="609600" cy="285750"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>明細へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15765,7 +16350,7 @@
   <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15779,13 +16364,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -15811,70 +16396,70 @@
       <c r="Z1" s="48"/>
       <c r="AA1" s="48"/>
       <c r="AB1" s="48"/>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="60" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="46" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46" t="s">
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -15960,40 +16545,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="59" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="59" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="59" t="s">
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="63"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -16019,379 +16604,379 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="53" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="54">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="61">
         <v>255555</v>
       </c>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="54">
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="61">
         <v>6666</v>
       </c>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="54">
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="61">
         <v>7777</v>
       </c>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="50" t="s">
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="50" t="s">
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="50" t="s">
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="50" t="s">
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="52"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="59"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="52"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="59"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="52"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="59"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="52"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="59"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="59"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="59"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="59"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="59"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="59"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -17274,26 +17859,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BD181-CAFE-4E56-A564-64DEA08C7205}">
-  <dimension ref="A1:AH37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA7C37A-E488-41B8-8A00-1F61DEAB6346}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU21" sqref="AU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="63" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="26" width="3.625" customWidth="1"/>
+    <col min="27" max="27" width="3.75" customWidth="1"/>
+    <col min="28" max="32" width="3.625" customWidth="1"/>
+    <col min="33" max="33" width="4.25" customWidth="1"/>
+    <col min="34" max="66" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -17316,65 +17909,1900 @@
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="47" t="s">
         <v>7</v>
-      </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="47" t="s">
-        <v>160</v>
       </c>
       <c r="AD1" s="47"/>
       <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
+      <c r="AF1" s="49">
+        <v>44597</v>
+      </c>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+    </row>
+    <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+    </row>
+    <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="3"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="3"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="3"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="74">
+        <v>210000</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="67">
+        <v>20000</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="74">
+        <v>10000</v>
+      </c>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="74">
+        <v>7000</v>
+      </c>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="67">
+        <v>8000</v>
+      </c>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="67">
+        <v>225000</v>
+      </c>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="74">
+        <v>210000</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="67">
+        <v>0</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="74">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="74">
+        <v>10000</v>
+      </c>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="74">
+        <v>7000</v>
+      </c>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="67">
+        <v>8000</v>
+      </c>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="67">
+        <v>205000</v>
+      </c>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="69"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="3"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="3"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="9"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="3"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="3"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="3"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="3"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="3"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="3"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="11"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="3"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="3"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="3"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="9"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="3"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="3"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="3"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="3"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="3"/>
+    </row>
+    <row r="40" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="137">
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32BD181-CAFE-4E56-A564-64DEA08C7205}">
+  <dimension ref="A1:AH37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="63" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -18718,11 +21146,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440274E1-6FAA-4DBD-852C-277EA209C3C6}">
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AN23" sqref="AN23"/>
     </sheetView>
   </sheetViews>
@@ -18732,13 +21160,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -18761,63 +21189,63 @@
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19030,7 +21458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BC5A52-DBD2-4442-AE1E-7314248ADAF7}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
@@ -19044,13 +21472,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -19081,71 +21509,71 @@
       <c r="AE1" s="48"/>
       <c r="AF1" s="48"/>
       <c r="AG1" s="48"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AH1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19374,7 +21802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA733BC-7D98-4014-9050-14739B898453}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
@@ -19388,13 +21816,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -19425,71 +21853,71 @@
       <c r="AE1" s="48"/>
       <c r="AF1" s="48"/>
       <c r="AG1" s="48"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AH1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19724,7 +22152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
@@ -19738,13 +22166,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -19767,65 +22195,65 @@
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21007,7 +23435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEFC46C-BE9B-4593-9B5D-0C64259FB4BF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -21029,7 +23457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -21050,13 +23478,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -21082,68 +23510,68 @@
       <c r="Z1" s="48"/>
       <c r="AA1" s="48"/>
       <c r="AB1" s="48"/>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="60" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="46" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -21227,38 +23655,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="59" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="59" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="63"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -21276,357 +23704,357 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="52"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="59"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="52"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="59"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="52"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="59"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="52"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="59"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="59"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="59"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="59"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="59"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="59"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -22340,7 +24768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -22357,13 +24785,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -22386,63 +24814,63 @@
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22557,46 +24985,46 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45" t="s">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45" t="s">
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -22604,38 +25032,38 @@
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -22643,34 +25071,34 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -22678,34 +25106,34 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -22713,34 +25141,34 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -22748,34 +25176,34 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -22783,34 +25211,34 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -22818,34 +25246,34 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -22853,34 +25281,34 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -22888,34 +25316,34 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -22923,34 +25351,34 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -22958,34 +25386,34 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -24213,17 +26641,17 @@
       <c r="C32" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="21" t="s">
         <v>119</v>
       </c>
@@ -24235,17 +26663,17 @@
       <c r="C33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
       <c r="M33" s="20" t="s">
         <v>120</v>
       </c>
@@ -24257,17 +26685,17 @@
       <c r="C34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
       <c r="M34" s="19"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
@@ -24277,17 +26705,17 @@
       <c r="C35" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
@@ -24297,17 +26725,17 @@
       <c r="C36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
       <c r="M36" s="19"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
@@ -24317,17 +26745,17 @@
       <c r="C37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
       <c r="M37" s="19" t="s">
         <v>121</v>
       </c>
@@ -24425,7 +26853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67211816-7D54-4430-8FA8-7C86F579341D}">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
@@ -24440,13 +26868,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -24472,70 +26900,70 @@
       <c r="Z1" s="48"/>
       <c r="AA1" s="48"/>
       <c r="AB1" s="48"/>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="60" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="46" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46" t="s">
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -25085,26 +27513,26 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -25484,55 +27912,55 @@
       <c r="AK24" s="6"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63" t="s">
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="64" t="s">
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="63" t="s">
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63" t="s">
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="65"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="53"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -26747,14 +29175,14 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="61"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -27109,13 +29537,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -27138,63 +29566,63 @@
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -28617,13 +31045,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -28646,63 +31074,63 @@
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -28993,13 +31421,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -29022,63 +31450,63 @@
       <c r="W1" s="48"/>
       <c r="X1" s="48"/>
       <c r="Y1" s="48"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="47" t="s">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="49" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -30594,13 +33022,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -30631,71 +33059,71 @@
       <c r="AE1" s="48"/>
       <c r="AF1" s="48"/>
       <c r="AG1" s="48"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AH1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -30940,7 +33368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81E8075-D5AE-4F20-8F2B-EF172CBC1A54}">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
@@ -30955,13 +33383,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
         <v>4</v>
       </c>
@@ -30987,70 +33415,70 @@
       <c r="Z1" s="48"/>
       <c r="AA1" s="48"/>
       <c r="AB1" s="48"/>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="47" t="s">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="60" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="46" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46" t="s">
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -31136,40 +33564,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="59" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="59" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="59" t="s">
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="63"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -31191,46 +33619,46 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="53" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="54">
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="61">
         <v>180</v>
       </c>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="54" t="s">
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="54">
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="61">
         <v>7777</v>
       </c>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="50" t="s">
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="52"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="59"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -31246,46 +33674,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="53" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="54">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="61">
         <v>200</v>
       </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="54" t="s">
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="54">
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="61">
         <v>1234</v>
       </c>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="50">
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="57">
         <v>2345</v>
       </c>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="52"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -31301,46 +33729,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="53" t="s">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="54">
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="61">
         <v>210</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="54" t="s">
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="54">
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="61">
         <v>3456</v>
       </c>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="50">
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="57">
         <v>234</v>
       </c>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="52"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -31356,32 +33784,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="52"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -31395,32 +33823,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="52"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -31434,32 +33862,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="52"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="59"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -31473,32 +33901,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="52"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="59"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -31512,32 +33940,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="52"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="59"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -31551,32 +33979,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>

--- a/DOC/要件定義/社内管理システム _EMS.xlsx
+++ b/DOC/要件定義/社内管理システム _EMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\softtech\git-new\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F267CA-05FB-4F51-B0DD-86028549927D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E7591-69B4-437A-B656-9B63FCFE04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4410,6 +4410,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4418,18 +4421,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4446,16 +4437,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4473,10 +4470,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4507,9 +4510,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17700,108 +17700,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -18061,102 +18061,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="55" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -18242,40 +18242,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="67" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="67" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="67" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="63"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="62"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -18301,379 +18301,379 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="66" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="61">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="60">
         <v>255555</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="61">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="60">
         <v>6666</v>
       </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="61">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="60">
         <v>7777</v>
       </c>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="58" t="s">
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="58" t="s">
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="58" t="s">
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="58" t="s">
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="60"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="68"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="60"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="68"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="60"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="68"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="60"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="68"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="60"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="68"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="60"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="68"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="60"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="68"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="60"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="68"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="68"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -19441,88 +19441,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -19547,6 +19465,88 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19574,102 +19574,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="54">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51">
         <v>44597</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="55" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19793,40 +19793,40 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="67" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="67" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="67" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="67" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="67" t="s">
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="63"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
       <c r="X6" s="12" t="s">
         <v>76</v>
       </c>
@@ -19838,9 +19838,9 @@
       </c>
       <c r="AC6" s="17"/>
       <c r="AD6" s="15"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="77"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="78"/>
       <c r="AH6" s="16"/>
       <c r="AI6" s="17"/>
       <c r="AJ6" s="15"/>
@@ -19848,522 +19848,522 @@
     </row>
     <row r="7" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="69">
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="70">
         <v>210000</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72">
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73">
         <v>20000</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="69">
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="70">
         <v>10000</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="69">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="70">
         <v>10000</v>
       </c>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="69">
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="70">
         <v>7000</v>
       </c>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="72">
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73">
         <v>8000</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="72">
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="73">
         <v>225000</v>
       </c>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="75"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="69">
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="70">
         <v>210000</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72">
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73">
         <v>0</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="69">
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="70">
         <v>10000</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="69">
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="70">
         <v>10000</v>
       </c>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="69">
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="70">
         <v>7000</v>
       </c>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="72">
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="73">
         <v>8000</v>
       </c>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="72">
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="73">
         <v>205000</v>
       </c>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="75"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="74"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="75"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="74"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="75"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="74"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="75"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="74"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="75"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="74"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="75"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="74"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="75"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="74"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="75"/>
       <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="74"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="75"/>
       <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="74"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="75"/>
       <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="74"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="75"/>
       <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
@@ -21250,64 +21250,61 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
@@ -21332,61 +21329,64 @@
     <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AE16:AG16"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21409,94 +21409,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22859,102 +22859,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="55" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -23040,40 +23040,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="67" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="67" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="67" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="63"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="62"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -23095,46 +23095,46 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="66" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="61">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="60">
         <v>180</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="61" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="61">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="60">
         <v>7777</v>
       </c>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="58" t="s">
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="60"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -23150,46 +23150,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="66" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="61">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="60">
         <v>200</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="61" t="s">
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="61">
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="60">
         <v>1234</v>
       </c>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="58">
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="66">
         <v>2345</v>
       </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -23205,46 +23205,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="66" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="61">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="60">
         <v>210</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="61" t="s">
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="61">
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="60">
         <v>3456</v>
       </c>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="58">
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="66">
         <v>234</v>
       </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="60"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="68"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -23260,32 +23260,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -23299,32 +23299,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -23338,32 +23338,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -23377,32 +23377,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="60"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -23416,32 +23416,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -23455,32 +23455,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="68"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -24136,69 +24136,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -24215,6 +24152,69 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24237,92 +24237,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24549,108 +24549,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24893,108 +24893,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -25243,94 +25243,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26565,17 +26565,17 @@
       <c r="C32" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
       <c r="M32" s="21" t="s">
         <v>119</v>
       </c>
@@ -26587,17 +26587,17 @@
       <c r="C33" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="20" t="s">
         <v>120</v>
       </c>
@@ -26609,17 +26609,17 @@
       <c r="C34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
       <c r="M34" s="19"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
@@ -26629,17 +26629,17 @@
       <c r="C35" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.4">
@@ -26649,17 +26649,17 @@
       <c r="C36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
       <c r="M36" s="19"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
@@ -26669,17 +26669,17 @@
       <c r="C37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
       <c r="M37" s="19" t="s">
         <v>121</v>
       </c>
@@ -26720,100 +26720,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="55" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26897,38 +26897,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="67" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="67" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="63"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="62"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -26946,357 +26946,357 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="60"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="68"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="60"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="68"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="60"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="68"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="60"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="68"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="60"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="68"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="60"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="68"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="60"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="68"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="60"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="68"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="60"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="68"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -27896,64 +27896,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
@@ -27978,30 +27944,64 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28027,92 +28027,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -28227,46 +28227,46 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52" t="s">
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -28274,38 +28274,38 @@
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -28313,34 +28313,34 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -28348,34 +28348,34 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -28383,34 +28383,34 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -28418,34 +28418,34 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -28453,34 +28453,34 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -28488,34 +28488,34 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -28523,34 +28523,34 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -28558,34 +28558,34 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -28593,34 +28593,34 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -28628,34 +28628,34 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -29762,76 +29762,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -29844,6 +29774,76 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29948,102 +29948,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="54" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="55" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -30992,55 +30992,55 @@
       <c r="AK24" s="6"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48" t="s">
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="51" t="s">
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="48" t="s">
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48" t="s">
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="48"/>
-      <c r="AI25" s="48"/>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="49"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="55"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -32579,6 +32579,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AF25:AK25"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -32589,12 +32595,6 @@
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF25:AK25"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32617,92 +32617,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -34125,92 +34125,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -34501,92 +34501,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -36109,8 +36109,8 @@
   </sheetPr>
   <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK84" sqref="AK84"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -36119,108 +36119,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="52" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -36808,7 +36808,7 @@
       <c r="B39" t="s">
         <v>347</v>
       </c>
-      <c r="F39" s="78" t="s">
+      <c r="F39" s="45" t="s">
         <v>306</v>
       </c>
       <c r="L39" t="s">
@@ -36937,108 +36937,108 @@
       <c r="AO44" s="9"/>
     </row>
     <row r="46" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="52" t="s">
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="54" t="s">
+      <c r="AI46" s="49"/>
+      <c r="AJ46" s="49"/>
+      <c r="AK46" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL46" s="54"/>
-      <c r="AM46" s="54"/>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="54"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="51"/>
+      <c r="AO46" s="51"/>
     </row>
     <row r="47" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55" t="s">
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55" t="s">
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55" t="s">
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="55"/>
-      <c r="AA47" s="55"/>
-      <c r="AB47" s="55"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="55"/>
-      <c r="AE47" s="55"/>
-      <c r="AF47" s="55"/>
-      <c r="AG47" s="55"/>
-      <c r="AH47" s="55" t="s">
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI47" s="55"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="55"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
     </row>
     <row r="48" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
@@ -37360,108 +37360,108 @@
       <c r="AO68" s="8"/>
     </row>
     <row r="69" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="53" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="53"/>
-      <c r="W69" s="53"/>
-      <c r="X69" s="53"/>
-      <c r="Y69" s="53"/>
-      <c r="Z69" s="53"/>
-      <c r="AA69" s="53"/>
-      <c r="AB69" s="53"/>
-      <c r="AC69" s="53"/>
-      <c r="AD69" s="53"/>
-      <c r="AE69" s="53"/>
-      <c r="AF69" s="53"/>
-      <c r="AG69" s="53"/>
-      <c r="AH69" s="52" t="s">
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="50"/>
+      <c r="W69" s="50"/>
+      <c r="X69" s="50"/>
+      <c r="Y69" s="50"/>
+      <c r="Z69" s="50"/>
+      <c r="AA69" s="50"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI69" s="52"/>
-      <c r="AJ69" s="52"/>
-      <c r="AK69" s="54" t="s">
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL69" s="54"/>
-      <c r="AM69" s="54"/>
-      <c r="AN69" s="54"/>
-      <c r="AO69" s="54"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="51"/>
+      <c r="AN69" s="51"/>
+      <c r="AO69" s="51"/>
     </row>
     <row r="70" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55" t="s">
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55" t="s">
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55" t="s">
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="55"/>
-      <c r="U70" s="55"/>
-      <c r="V70" s="55"/>
-      <c r="W70" s="55"/>
-      <c r="X70" s="55"/>
-      <c r="Y70" s="55"/>
-      <c r="Z70" s="55"/>
-      <c r="AA70" s="55"/>
-      <c r="AB70" s="55"/>
-      <c r="AC70" s="55"/>
-      <c r="AD70" s="55"/>
-      <c r="AE70" s="55"/>
-      <c r="AF70" s="55"/>
-      <c r="AG70" s="55"/>
-      <c r="AH70" s="55" t="s">
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI70" s="55"/>
-      <c r="AJ70" s="55"/>
-      <c r="AK70" s="55"/>
-      <c r="AL70" s="55"/>
-      <c r="AM70" s="55"/>
-      <c r="AN70" s="55"/>
-      <c r="AO70" s="55"/>
+      <c r="AI70" s="52"/>
+      <c r="AJ70" s="52"/>
+      <c r="AK70" s="52"/>
+      <c r="AL70" s="52"/>
+      <c r="AM70" s="52"/>
+      <c r="AN70" s="52"/>
+      <c r="AO70" s="52"/>
     </row>
     <row r="71" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
@@ -37713,108 +37713,108 @@
       <c r="AO93" s="9"/>
     </row>
     <row r="95" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="53" t="s">
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
-      <c r="V95" s="53"/>
-      <c r="W95" s="53"/>
-      <c r="X95" s="53"/>
-      <c r="Y95" s="53"/>
-      <c r="Z95" s="53"/>
-      <c r="AA95" s="53"/>
-      <c r="AB95" s="53"/>
-      <c r="AC95" s="53"/>
-      <c r="AD95" s="53"/>
-      <c r="AE95" s="53"/>
-      <c r="AF95" s="53"/>
-      <c r="AG95" s="53"/>
-      <c r="AH95" s="52" t="s">
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="50"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="50"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="50"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
+      <c r="V95" s="50"/>
+      <c r="W95" s="50"/>
+      <c r="X95" s="50"/>
+      <c r="Y95" s="50"/>
+      <c r="Z95" s="50"/>
+      <c r="AA95" s="50"/>
+      <c r="AB95" s="50"/>
+      <c r="AC95" s="50"/>
+      <c r="AD95" s="50"/>
+      <c r="AE95" s="50"/>
+      <c r="AF95" s="50"/>
+      <c r="AG95" s="50"/>
+      <c r="AH95" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI95" s="52"/>
-      <c r="AJ95" s="52"/>
-      <c r="AK95" s="54" t="s">
+      <c r="AI95" s="49"/>
+      <c r="AJ95" s="49"/>
+      <c r="AK95" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL95" s="54"/>
-      <c r="AM95" s="54"/>
-      <c r="AN95" s="54"/>
-      <c r="AO95" s="54"/>
+      <c r="AL95" s="51"/>
+      <c r="AM95" s="51"/>
+      <c r="AN95" s="51"/>
+      <c r="AO95" s="51"/>
     </row>
     <row r="96" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55" t="s">
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="55"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="55" t="s">
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N96" s="55"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="55" t="s">
+      <c r="N96" s="52"/>
+      <c r="O96" s="52"/>
+      <c r="P96" s="52"/>
+      <c r="Q96" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R96" s="55"/>
-      <c r="S96" s="55"/>
-      <c r="T96" s="55"/>
-      <c r="U96" s="55"/>
-      <c r="V96" s="55"/>
-      <c r="W96" s="55"/>
-      <c r="X96" s="55"/>
-      <c r="Y96" s="55"/>
-      <c r="Z96" s="55"/>
-      <c r="AA96" s="55"/>
-      <c r="AB96" s="55"/>
-      <c r="AC96" s="55"/>
-      <c r="AD96" s="55"/>
-      <c r="AE96" s="55"/>
-      <c r="AF96" s="55"/>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="55" t="s">
+      <c r="R96" s="52"/>
+      <c r="S96" s="52"/>
+      <c r="T96" s="52"/>
+      <c r="U96" s="52"/>
+      <c r="V96" s="52"/>
+      <c r="W96" s="52"/>
+      <c r="X96" s="52"/>
+      <c r="Y96" s="52"/>
+      <c r="Z96" s="52"/>
+      <c r="AA96" s="52"/>
+      <c r="AB96" s="52"/>
+      <c r="AC96" s="52"/>
+      <c r="AD96" s="52"/>
+      <c r="AE96" s="52"/>
+      <c r="AF96" s="52"/>
+      <c r="AG96" s="52"/>
+      <c r="AH96" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI96" s="55"/>
-      <c r="AJ96" s="55"/>
-      <c r="AK96" s="55"/>
-      <c r="AL96" s="55"/>
-      <c r="AM96" s="55"/>
-      <c r="AN96" s="55"/>
-      <c r="AO96" s="55"/>
+      <c r="AI96" s="52"/>
+      <c r="AJ96" s="52"/>
+      <c r="AK96" s="52"/>
+      <c r="AL96" s="52"/>
+      <c r="AM96" s="52"/>
+      <c r="AN96" s="52"/>
+      <c r="AO96" s="52"/>
     </row>
     <row r="97" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
@@ -38047,6 +38047,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:AG46"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AK46:AO46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="Q47:AG47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AK47:AO47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:AG69"/>
+    <mergeCell ref="AH69:AJ69"/>
+    <mergeCell ref="AK69:AO69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="Q70:AG70"/>
+    <mergeCell ref="AH70:AJ70"/>
+    <mergeCell ref="AK70:AO70"/>
     <mergeCell ref="A95:E95"/>
     <mergeCell ref="F95:AG95"/>
     <mergeCell ref="AH95:AJ95"/>
@@ -38057,36 +38087,6 @@
     <mergeCell ref="Q96:AG96"/>
     <mergeCell ref="AH96:AJ96"/>
     <mergeCell ref="AK96:AO96"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:AG69"/>
-    <mergeCell ref="AH69:AJ69"/>
-    <mergeCell ref="AK69:AO69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="Q70:AG70"/>
-    <mergeCell ref="AH70:AJ70"/>
-    <mergeCell ref="AK70:AO70"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:AG46"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="AK46:AO46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="Q47:AG47"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="AK47:AO47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/要件定義/社内管理システム _EMS.xlsx
+++ b/DOC/要件定義/社内管理システム _EMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\softtech\git-new\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E7591-69B4-437A-B656-9B63FCFE04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DCBE79-E503-414C-A28B-3CB2F7284F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4422,6 +4422,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4437,22 +4449,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4470,16 +4476,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -17700,108 +17700,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -18061,102 +18061,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -18242,40 +18242,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="65" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="65" t="s">
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="65" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="64"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -18301,379 +18301,379 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="59" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="60">
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="62">
         <v>255555</v>
       </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="60">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="62">
         <v>6666</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="60">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="62">
         <v>7777</v>
       </c>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="66" t="s">
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="66" t="s">
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="66" t="s">
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="66" t="s">
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="68"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="68"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="68"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="68"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="68"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="68"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="68"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="68"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="68"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -19441,6 +19441,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -19465,88 +19547,6 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19574,102 +19574,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="55">
         <v>44597</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19793,40 +19793,40 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="65" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="65" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="65" t="s">
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="65" t="s">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="65" t="s">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
       <c r="X6" s="12" t="s">
         <v>76</v>
       </c>
@@ -19851,8 +19851,8 @@
       <c r="B7" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="70">
         <v>210000</v>
       </c>
@@ -19906,8 +19906,8 @@
       <c r="B8" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="70">
         <v>210000</v>
       </c>
@@ -19961,8 +19961,8 @@
       <c r="B9" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -20002,8 +20002,8 @@
       <c r="B10" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="70"/>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -20043,8 +20043,8 @@
       <c r="B11" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="70"/>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -20084,8 +20084,8 @@
       <c r="B12" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="70"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -20125,8 +20125,8 @@
       <c r="B13" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="70"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -20166,8 +20166,8 @@
       <c r="B14" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="70"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -20207,8 +20207,8 @@
       <c r="B15" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="70"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -20248,8 +20248,8 @@
       <c r="B16" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="70"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -20289,8 +20289,8 @@
       <c r="B17" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="70"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -20330,8 +20330,8 @@
       <c r="B18" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="70"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -21250,61 +21250,64 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
@@ -21329,64 +21332,61 @@
     <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AE16:AG16"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21409,94 +21409,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22859,102 +22859,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -23040,40 +23040,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="65" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="65" t="s">
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="65" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="64"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -23095,46 +23095,46 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="59" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="60">
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="62">
         <v>180</v>
       </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="60" t="s">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="60">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="62">
         <v>7777</v>
       </c>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="66" t="s">
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="68"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -23150,46 +23150,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="59" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="60">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="62">
         <v>200</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="60" t="s">
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="60">
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="62">
         <v>1234</v>
       </c>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="66">
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="59">
         <v>2345</v>
       </c>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="68"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -23205,46 +23205,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="59" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="60">
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="62">
         <v>210</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="60" t="s">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="60">
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="62">
         <v>3456</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="66">
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="59">
         <v>234</v>
       </c>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="68"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -23260,32 +23260,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="68"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -23299,32 +23299,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="68"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -23338,32 +23338,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -23377,32 +23377,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="68"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -23416,32 +23416,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="68"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -23455,32 +23455,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="68"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -24136,6 +24136,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -24152,69 +24215,6 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24237,92 +24237,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24549,108 +24549,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24893,108 +24893,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -25243,94 +25243,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26720,100 +26720,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26897,38 +26897,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="65" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="65" t="s">
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="64"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -26946,357 +26946,357 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="68"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="68"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="68"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="68"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="68"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="68"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="68"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="68"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="68"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -27896,6 +27896,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AH12:AJ12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
@@ -27920,88 +28002,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28027,92 +28027,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -28227,46 +28227,46 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49" t="s">
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49" t="s">
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49" t="s">
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -28274,38 +28274,38 @@
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -28313,34 +28313,34 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -28348,34 +28348,34 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -28383,34 +28383,34 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -28418,34 +28418,34 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -28453,34 +28453,34 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -28488,34 +28488,34 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -28523,34 +28523,34 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -28558,34 +28558,34 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -28593,34 +28593,34 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -28628,34 +28628,34 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -29762,6 +29762,76 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -29774,76 +29844,6 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29948,102 +29948,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="52" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52" t="s">
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -30992,55 +30992,55 @@
       <c r="AK24" s="6"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54" t="s">
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="57" t="s">
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="54" t="s">
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54" t="s">
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="55"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="50"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -32579,12 +32579,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AF25:AK25"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -32595,6 +32589,12 @@
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AF25:AK25"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32617,92 +32617,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -34125,92 +34125,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -34501,92 +34501,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -36109,8 +36109,8 @@
   </sheetPr>
   <dimension ref="A1:AO118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -36119,108 +36119,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="49" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -36937,108 +36937,108 @@
       <c r="AO44" s="9"/>
     </row>
     <row r="46" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="49" t="s">
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="54"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI46" s="49"/>
-      <c r="AJ46" s="49"/>
-      <c r="AK46" s="51" t="s">
+      <c r="AI46" s="53"/>
+      <c r="AJ46" s="53"/>
+      <c r="AK46" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="AL46" s="51"/>
-      <c r="AM46" s="51"/>
-      <c r="AN46" s="51"/>
-      <c r="AO46" s="51"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="55"/>
     </row>
     <row r="47" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52" t="s">
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52" t="s">
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52" t="s">
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52" t="s">
+      <c r="R47" s="56"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="56"/>
+      <c r="AD47" s="56"/>
+      <c r="AE47" s="56"/>
+      <c r="AF47" s="56"/>
+      <c r="AG47" s="56"/>
+      <c r="AH47" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="52"/>
-      <c r="AL47" s="52"/>
-      <c r="AM47" s="52"/>
-      <c r="AN47" s="52"/>
-      <c r="AO47" s="52"/>
+      <c r="AI47" s="56"/>
+      <c r="AJ47" s="56"/>
+      <c r="AK47" s="56"/>
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
     </row>
     <row r="48" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
@@ -37360,108 +37360,108 @@
       <c r="AO68" s="8"/>
     </row>
     <row r="69" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="50" t="s">
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
-      <c r="W69" s="50"/>
-      <c r="X69" s="50"/>
-      <c r="Y69" s="50"/>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="50"/>
-      <c r="AE69" s="50"/>
-      <c r="AF69" s="50"/>
-      <c r="AG69" s="50"/>
-      <c r="AH69" s="49" t="s">
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="54"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="54"/>
+      <c r="S69" s="54"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="54"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="54"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="54"/>
+      <c r="AA69" s="54"/>
+      <c r="AB69" s="54"/>
+      <c r="AC69" s="54"/>
+      <c r="AD69" s="54"/>
+      <c r="AE69" s="54"/>
+      <c r="AF69" s="54"/>
+      <c r="AG69" s="54"/>
+      <c r="AH69" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI69" s="49"/>
-      <c r="AJ69" s="49"/>
-      <c r="AK69" s="51" t="s">
+      <c r="AI69" s="53"/>
+      <c r="AJ69" s="53"/>
+      <c r="AK69" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="AL69" s="51"/>
-      <c r="AM69" s="51"/>
-      <c r="AN69" s="51"/>
-      <c r="AO69" s="51"/>
+      <c r="AL69" s="55"/>
+      <c r="AM69" s="55"/>
+      <c r="AN69" s="55"/>
+      <c r="AO69" s="55"/>
     </row>
     <row r="70" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52" t="s">
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52" t="s">
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
+      <c r="J70" s="56"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52" t="s">
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="56"/>
+      <c r="Q70" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="52"/>
-      <c r="Y70" s="52"/>
-      <c r="Z70" s="52"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="52"/>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="52"/>
-      <c r="AG70" s="52"/>
-      <c r="AH70" s="52" t="s">
+      <c r="R70" s="56"/>
+      <c r="S70" s="56"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
+      <c r="V70" s="56"/>
+      <c r="W70" s="56"/>
+      <c r="X70" s="56"/>
+      <c r="Y70" s="56"/>
+      <c r="Z70" s="56"/>
+      <c r="AA70" s="56"/>
+      <c r="AB70" s="56"/>
+      <c r="AC70" s="56"/>
+      <c r="AD70" s="56"/>
+      <c r="AE70" s="56"/>
+      <c r="AF70" s="56"/>
+      <c r="AG70" s="56"/>
+      <c r="AH70" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI70" s="52"/>
-      <c r="AJ70" s="52"/>
-      <c r="AK70" s="52"/>
-      <c r="AL70" s="52"/>
-      <c r="AM70" s="52"/>
-      <c r="AN70" s="52"/>
-      <c r="AO70" s="52"/>
+      <c r="AI70" s="56"/>
+      <c r="AJ70" s="56"/>
+      <c r="AK70" s="56"/>
+      <c r="AL70" s="56"/>
+      <c r="AM70" s="56"/>
+      <c r="AN70" s="56"/>
+      <c r="AO70" s="56"/>
     </row>
     <row r="71" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
@@ -37713,108 +37713,108 @@
       <c r="AO93" s="9"/>
     </row>
     <row r="95" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="50" t="s">
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="50"/>
-      <c r="O95" s="50"/>
-      <c r="P95" s="50"/>
-      <c r="Q95" s="50"/>
-      <c r="R95" s="50"/>
-      <c r="S95" s="50"/>
-      <c r="T95" s="50"/>
-      <c r="U95" s="50"/>
-      <c r="V95" s="50"/>
-      <c r="W95" s="50"/>
-      <c r="X95" s="50"/>
-      <c r="Y95" s="50"/>
-      <c r="Z95" s="50"/>
-      <c r="AA95" s="50"/>
-      <c r="AB95" s="50"/>
-      <c r="AC95" s="50"/>
-      <c r="AD95" s="50"/>
-      <c r="AE95" s="50"/>
-      <c r="AF95" s="50"/>
-      <c r="AG95" s="50"/>
-      <c r="AH95" s="49" t="s">
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54"/>
+      <c r="R95" s="54"/>
+      <c r="S95" s="54"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="54"/>
+      <c r="V95" s="54"/>
+      <c r="W95" s="54"/>
+      <c r="X95" s="54"/>
+      <c r="Y95" s="54"/>
+      <c r="Z95" s="54"/>
+      <c r="AA95" s="54"/>
+      <c r="AB95" s="54"/>
+      <c r="AC95" s="54"/>
+      <c r="AD95" s="54"/>
+      <c r="AE95" s="54"/>
+      <c r="AF95" s="54"/>
+      <c r="AG95" s="54"/>
+      <c r="AH95" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AI95" s="49"/>
-      <c r="AJ95" s="49"/>
-      <c r="AK95" s="51" t="s">
+      <c r="AI95" s="53"/>
+      <c r="AJ95" s="53"/>
+      <c r="AK95" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="AL95" s="51"/>
-      <c r="AM95" s="51"/>
-      <c r="AN95" s="51"/>
-      <c r="AO95" s="51"/>
+      <c r="AL95" s="55"/>
+      <c r="AM95" s="55"/>
+      <c r="AN95" s="55"/>
+      <c r="AO95" s="55"/>
     </row>
     <row r="96" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="52" t="s">
+      <c r="A96" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52" t="s">
+      <c r="B96" s="56"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="52"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52" t="s">
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="N96" s="52"/>
-      <c r="O96" s="52"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="52" t="s">
+      <c r="N96" s="56"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="R96" s="52"/>
-      <c r="S96" s="52"/>
-      <c r="T96" s="52"/>
-      <c r="U96" s="52"/>
-      <c r="V96" s="52"/>
-      <c r="W96" s="52"/>
-      <c r="X96" s="52"/>
-      <c r="Y96" s="52"/>
-      <c r="Z96" s="52"/>
-      <c r="AA96" s="52"/>
-      <c r="AB96" s="52"/>
-      <c r="AC96" s="52"/>
-      <c r="AD96" s="52"/>
-      <c r="AE96" s="52"/>
-      <c r="AF96" s="52"/>
-      <c r="AG96" s="52"/>
-      <c r="AH96" s="52" t="s">
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="56"/>
+      <c r="U96" s="56"/>
+      <c r="V96" s="56"/>
+      <c r="W96" s="56"/>
+      <c r="X96" s="56"/>
+      <c r="Y96" s="56"/>
+      <c r="Z96" s="56"/>
+      <c r="AA96" s="56"/>
+      <c r="AB96" s="56"/>
+      <c r="AC96" s="56"/>
+      <c r="AD96" s="56"/>
+      <c r="AE96" s="56"/>
+      <c r="AF96" s="56"/>
+      <c r="AG96" s="56"/>
+      <c r="AH96" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI96" s="52"/>
-      <c r="AJ96" s="52"/>
-      <c r="AK96" s="52"/>
-      <c r="AL96" s="52"/>
-      <c r="AM96" s="52"/>
-      <c r="AN96" s="52"/>
-      <c r="AO96" s="52"/>
+      <c r="AI96" s="56"/>
+      <c r="AJ96" s="56"/>
+      <c r="AK96" s="56"/>
+      <c r="AL96" s="56"/>
+      <c r="AM96" s="56"/>
+      <c r="AN96" s="56"/>
+      <c r="AO96" s="56"/>
     </row>
     <row r="97" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
@@ -38047,6 +38047,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="F95:AG95"/>
+    <mergeCell ref="AH95:AJ95"/>
+    <mergeCell ref="AK95:AO95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="F96:L96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="Q96:AG96"/>
+    <mergeCell ref="AH96:AJ96"/>
+    <mergeCell ref="AK96:AO96"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:AG69"/>
+    <mergeCell ref="AH69:AJ69"/>
+    <mergeCell ref="AK69:AO69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="Q70:AG70"/>
+    <mergeCell ref="AH70:AJ70"/>
+    <mergeCell ref="AK70:AO70"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="F46:AG46"/>
     <mergeCell ref="AH46:AJ46"/>
@@ -38057,36 +38087,6 @@
     <mergeCell ref="Q47:AG47"/>
     <mergeCell ref="AH47:AJ47"/>
     <mergeCell ref="AK47:AO47"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:AG69"/>
-    <mergeCell ref="AH69:AJ69"/>
-    <mergeCell ref="AK69:AO69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="Q70:AG70"/>
-    <mergeCell ref="AH70:AJ70"/>
-    <mergeCell ref="AK70:AO70"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="F95:AG95"/>
-    <mergeCell ref="AH95:AJ95"/>
-    <mergeCell ref="AK95:AO95"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="F96:L96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="Q96:AG96"/>
-    <mergeCell ref="AH96:AJ96"/>
-    <mergeCell ref="AK96:AO96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/要件定義/社内管理システム _EMS.xlsx
+++ b/DOC/要件定義/社内管理システム _EMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\softtech\git-new\ems\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DCBE79-E503-414C-A28B-3CB2F7284F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844FA201-0FA5-4F43-845D-5B5964183405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4422,18 +4422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4449,16 +4437,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4476,10 +4470,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -17700,108 +17700,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="55" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -18061,102 +18061,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="56" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -18242,40 +18242,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="68" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="68" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="68" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="62"/>
       <c r="X5" s="12" t="s">
         <v>58</v>
       </c>
@@ -18301,379 +18301,379 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="67" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="62">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="60">
         <v>255555</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="62">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="60">
         <v>6666</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="62">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="60">
         <v>7777</v>
       </c>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="59" t="s">
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="59" t="s">
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="59" t="s">
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="59" t="s">
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="61"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="68"/>
       <c r="AK6" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="61"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="68"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="61"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="68"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="68"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="61"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="68"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="61"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="68"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="61"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="68"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="61"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="68"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="68"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -19441,88 +19441,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
@@ -19547,6 +19465,88 @@
     <mergeCell ref="T13:W13"/>
     <mergeCell ref="X13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19574,102 +19574,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="55">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51">
         <v>44597</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="56" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -19793,40 +19793,40 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="68" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="68" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="68" t="s">
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="68" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="68" t="s">
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="62"/>
       <c r="X6" s="12" t="s">
         <v>76</v>
       </c>
@@ -19851,8 +19851,8 @@
       <c r="B7" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="70">
         <v>210000</v>
       </c>
@@ -19906,8 +19906,8 @@
       <c r="B8" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="70">
         <v>210000</v>
       </c>
@@ -19961,8 +19961,8 @@
       <c r="B9" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="70"/>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -20002,8 +20002,8 @@
       <c r="B10" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="70"/>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -20043,8 +20043,8 @@
       <c r="B11" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="70"/>
       <c r="F11" s="71"/>
       <c r="G11" s="72"/>
@@ -20084,8 +20084,8 @@
       <c r="B12" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="70"/>
       <c r="F12" s="71"/>
       <c r="G12" s="72"/>
@@ -20125,8 +20125,8 @@
       <c r="B13" s="69" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="70"/>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -20166,8 +20166,8 @@
       <c r="B14" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="70"/>
       <c r="F14" s="71"/>
       <c r="G14" s="72"/>
@@ -20207,8 +20207,8 @@
       <c r="B15" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="70"/>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -20248,8 +20248,8 @@
       <c r="B16" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="70"/>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -20289,8 +20289,8 @@
       <c r="B17" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="70"/>
       <c r="F17" s="71"/>
       <c r="G17" s="72"/>
@@ -20330,8 +20330,8 @@
       <c r="B18" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="70"/>
       <c r="F18" s="71"/>
       <c r="G18" s="72"/>
@@ -21250,64 +21250,61 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
     <mergeCell ref="AH16:AJ16"/>
     <mergeCell ref="AB12:AD12"/>
     <mergeCell ref="AE12:AG12"/>
@@ -21332,61 +21329,64 @@
     <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AE16:AG16"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AA14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21409,94 +21409,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -22859,102 +22859,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="56" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -23040,40 +23040,40 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="68" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="68" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="68" t="s">
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="64"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="62"/>
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
@@ -23095,46 +23095,46 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="67" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="62">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="60">
         <v>180</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="62" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="62">
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="60">
         <v>7777</v>
       </c>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="59" t="s">
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
       <c r="AB6" s="16" t="s">
         <v>211</v>
       </c>
@@ -23150,46 +23150,46 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="67" t="s">
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="62">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="60">
         <v>200</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="62" t="s">
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="62">
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="60">
         <v>1234</v>
       </c>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="59">
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="66">
         <v>2345</v>
       </c>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
       <c r="AB7" s="16" t="s">
         <v>211</v>
       </c>
@@ -23205,46 +23205,46 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="67" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="62">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="60">
         <v>210</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="62" t="s">
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="62">
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="60">
         <v>3456</v>
       </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="59">
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="66">
         <v>234</v>
       </c>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="61"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="68"/>
       <c r="AB8" s="16" t="s">
         <v>211</v>
       </c>
@@ -23260,32 +23260,32 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
@@ -23299,32 +23299,32 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
@@ -23338,32 +23338,32 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
@@ -23377,32 +23377,32 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
@@ -23416,32 +23416,32 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
@@ -23455,32 +23455,32 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="68"/>
       <c r="AB14" s="16"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
@@ -24136,69 +24136,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="T5:W5"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
@@ -24215,6 +24152,69 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="P5:S5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24237,92 +24237,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24549,108 +24549,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="55" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -24893,108 +24893,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="55" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -25243,94 +25243,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26720,100 +26720,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="56" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -26897,38 +26897,38 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="68" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="68" t="s">
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="64"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="62"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -26946,357 +26946,357 @@
     </row>
     <row r="6" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="61"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="68"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="61"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="68"/>
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="61"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="68"/>
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="68"/>
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="61"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="68"/>
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="61"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="68"/>
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="61"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="68"/>
       <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="61"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="68"/>
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="68"/>
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
@@ -27896,64 +27896,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="T12:W12"/>
@@ -27978,30 +27944,64 @@
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28027,92 +28027,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -28227,46 +28227,46 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53" t="s">
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -28274,38 +28274,38 @@
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -28313,34 +28313,34 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -28348,34 +28348,34 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -28383,34 +28383,34 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -28418,34 +28418,34 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -28453,34 +28453,34 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -28488,34 +28488,34 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -28523,34 +28523,34 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -28558,34 +28558,34 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -28593,34 +28593,34 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -28628,34 +28628,34 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -29762,76 +29762,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="R12:W12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="R16:W16"/>
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="X7:AC7"/>
@@ -29844,6 +29774,76 @@
     <mergeCell ref="X14:AC14"/>
     <mergeCell ref="X15:AC15"/>
     <mergeCell ref="X16:AC16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="R12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29948,102 +29948,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="56" t="s">
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
     </row>
     <row r="3" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -30992,55 +30992,55 @@
       <c r="AK24" s="6"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49" t="s">
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="52" t="s">
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="49" t="s">
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49" t="s">
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="50"/>
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="55"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -32579,6 +32579,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AF25:AK25"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -32589,12 +32595,6 @@
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF25:AK25"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32617,92 +32617,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -34125,92 +34125,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -34501,92 +34501,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="55" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
     </row>
     <row r="2" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -36110,7 +36110,7 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -36119,108 +36119,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="53" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="55" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
     </row>
     <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -36937,108 +36937,108 @@
       <c r="AO44" s="9"/>
     </row>
     <row r="46" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="54" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="54"/>
-      <c r="AG46" s="54"/>
-      <c r="AH46" s="53" t="s">
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="55" t="s">
+      <c r="AI46" s="49"/>
+      <c r="AJ46" s="49"/>
+      <c r="AK46" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="55"/>
-      <c r="AO46" s="55"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="51"/>
+      <c r="AO46" s="51"/>
     </row>
     <row r="47" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56" t="s">
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56" t="s">
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="56" t="s">
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="X47" s="56"/>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="56"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="56"/>
-      <c r="AH47" s="56" t="s">
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI47" s="56"/>
-      <c r="AJ47" s="56"/>
-      <c r="AK47" s="56"/>
-      <c r="AL47" s="56"/>
-      <c r="AM47" s="56"/>
-      <c r="AN47" s="56"/>
-      <c r="AO47" s="56"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
+      <c r="AO47" s="52"/>
     </row>
     <row r="48" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
@@ -37360,108 +37360,108 @@
       <c r="AO68" s="8"/>
     </row>
     <row r="69" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54" t="s">
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-      <c r="W69" s="54"/>
-      <c r="X69" s="54"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="54"/>
-      <c r="AA69" s="54"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="54"/>
-      <c r="AD69" s="54"/>
-      <c r="AE69" s="54"/>
-      <c r="AF69" s="54"/>
-      <c r="AG69" s="54"/>
-      <c r="AH69" s="53" t="s">
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="50"/>
+      <c r="W69" s="50"/>
+      <c r="X69" s="50"/>
+      <c r="Y69" s="50"/>
+      <c r="Z69" s="50"/>
+      <c r="AA69" s="50"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI69" s="53"/>
-      <c r="AJ69" s="53"/>
-      <c r="AK69" s="55" t="s">
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL69" s="55"/>
-      <c r="AM69" s="55"/>
-      <c r="AN69" s="55"/>
-      <c r="AO69" s="55"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="51"/>
+      <c r="AN69" s="51"/>
+      <c r="AO69" s="51"/>
     </row>
     <row r="70" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56" t="s">
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="56"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="56"/>
-      <c r="J70" s="56"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56" t="s">
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="56" t="s">
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-      <c r="W70" s="56"/>
-      <c r="X70" s="56"/>
-      <c r="Y70" s="56"/>
-      <c r="Z70" s="56"/>
-      <c r="AA70" s="56"/>
-      <c r="AB70" s="56"/>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-      <c r="AF70" s="56"/>
-      <c r="AG70" s="56"/>
-      <c r="AH70" s="56" t="s">
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI70" s="56"/>
-      <c r="AJ70" s="56"/>
-      <c r="AK70" s="56"/>
-      <c r="AL70" s="56"/>
-      <c r="AM70" s="56"/>
-      <c r="AN70" s="56"/>
-      <c r="AO70" s="56"/>
+      <c r="AI70" s="52"/>
+      <c r="AJ70" s="52"/>
+      <c r="AK70" s="52"/>
+      <c r="AL70" s="52"/>
+      <c r="AM70" s="52"/>
+      <c r="AN70" s="52"/>
+      <c r="AO70" s="52"/>
     </row>
     <row r="71" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
@@ -37713,108 +37713,108 @@
       <c r="AO93" s="9"/>
     </row>
     <row r="95" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A95" s="53" t="s">
+      <c r="A95" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="54" t="s">
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="54"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="54"/>
-      <c r="S95" s="54"/>
-      <c r="T95" s="54"/>
-      <c r="U95" s="54"/>
-      <c r="V95" s="54"/>
-      <c r="W95" s="54"/>
-      <c r="X95" s="54"/>
-      <c r="Y95" s="54"/>
-      <c r="Z95" s="54"/>
-      <c r="AA95" s="54"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="54"/>
-      <c r="AD95" s="54"/>
-      <c r="AE95" s="54"/>
-      <c r="AF95" s="54"/>
-      <c r="AG95" s="54"/>
-      <c r="AH95" s="53" t="s">
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="50"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="50"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="50"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
+      <c r="V95" s="50"/>
+      <c r="W95" s="50"/>
+      <c r="X95" s="50"/>
+      <c r="Y95" s="50"/>
+      <c r="Z95" s="50"/>
+      <c r="AA95" s="50"/>
+      <c r="AB95" s="50"/>
+      <c r="AC95" s="50"/>
+      <c r="AD95" s="50"/>
+      <c r="AE95" s="50"/>
+      <c r="AF95" s="50"/>
+      <c r="AG95" s="50"/>
+      <c r="AH95" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI95" s="53"/>
-      <c r="AJ95" s="53"/>
-      <c r="AK95" s="55" t="s">
+      <c r="AI95" s="49"/>
+      <c r="AJ95" s="49"/>
+      <c r="AK95" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="AL95" s="55"/>
-      <c r="AM95" s="55"/>
-      <c r="AN95" s="55"/>
-      <c r="AO95" s="55"/>
+      <c r="AL95" s="51"/>
+      <c r="AM95" s="51"/>
+      <c r="AN95" s="51"/>
+      <c r="AO95" s="51"/>
     </row>
     <row r="96" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="56" t="s">
+      <c r="A96" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56" t="s">
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="56" t="s">
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="56" t="s">
+      <c r="N96" s="52"/>
+      <c r="O96" s="52"/>
+      <c r="P96" s="52"/>
+      <c r="Q96" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="R96" s="56"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="56"/>
-      <c r="U96" s="56"/>
-      <c r="V96" s="56"/>
-      <c r="W96" s="56"/>
-      <c r="X96" s="56"/>
-      <c r="Y96" s="56"/>
-      <c r="Z96" s="56"/>
-      <c r="AA96" s="56"/>
-      <c r="AB96" s="56"/>
-      <c r="AC96" s="56"/>
-      <c r="AD96" s="56"/>
-      <c r="AE96" s="56"/>
-      <c r="AF96" s="56"/>
-      <c r="AG96" s="56"/>
-      <c r="AH96" s="56" t="s">
+      <c r="R96" s="52"/>
+      <c r="S96" s="52"/>
+      <c r="T96" s="52"/>
+      <c r="U96" s="52"/>
+      <c r="V96" s="52"/>
+      <c r="W96" s="52"/>
+      <c r="X96" s="52"/>
+      <c r="Y96" s="52"/>
+      <c r="Z96" s="52"/>
+      <c r="AA96" s="52"/>
+      <c r="AB96" s="52"/>
+      <c r="AC96" s="52"/>
+      <c r="AD96" s="52"/>
+      <c r="AE96" s="52"/>
+      <c r="AF96" s="52"/>
+      <c r="AG96" s="52"/>
+      <c r="AH96" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AI96" s="56"/>
-      <c r="AJ96" s="56"/>
-      <c r="AK96" s="56"/>
-      <c r="AL96" s="56"/>
-      <c r="AM96" s="56"/>
-      <c r="AN96" s="56"/>
-      <c r="AO96" s="56"/>
+      <c r="AI96" s="52"/>
+      <c r="AJ96" s="52"/>
+      <c r="AK96" s="52"/>
+      <c r="AL96" s="52"/>
+      <c r="AM96" s="52"/>
+      <c r="AN96" s="52"/>
+      <c r="AO96" s="52"/>
     </row>
     <row r="97" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
@@ -38047,6 +38047,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:AG46"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AK46:AO46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="Q47:AG47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AK47:AO47"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:AG69"/>
+    <mergeCell ref="AH69:AJ69"/>
+    <mergeCell ref="AK69:AO69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="Q70:AG70"/>
+    <mergeCell ref="AH70:AJ70"/>
+    <mergeCell ref="AK70:AO70"/>
     <mergeCell ref="A95:E95"/>
     <mergeCell ref="F95:AG95"/>
     <mergeCell ref="AH95:AJ95"/>
@@ -38057,36 +38087,6 @@
     <mergeCell ref="Q96:AG96"/>
     <mergeCell ref="AH96:AJ96"/>
     <mergeCell ref="AK96:AO96"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:AG69"/>
-    <mergeCell ref="AH69:AJ69"/>
-    <mergeCell ref="AK69:AO69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="Q70:AG70"/>
-    <mergeCell ref="AH70:AJ70"/>
-    <mergeCell ref="AK70:AO70"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:AG46"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="AK46:AO46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="Q47:AG47"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="AK47:AO47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
